--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D4D3A-AA02-4444-A52B-4ADA85E3D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC644FC6-036C-4885-A722-D41BA4BE9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>S.No</t>
   </si>
@@ -84,13 +84,43 @@
     <t>completed</t>
   </si>
   <si>
-    <t>Jupitor note book</t>
-  </si>
-  <si>
     <t>reading</t>
   </si>
   <si>
     <t>Pandas Filters practice</t>
+  </si>
+  <si>
+    <t>Dev ops project</t>
+  </si>
+  <si>
+    <t>prepare reports</t>
+  </si>
+  <si>
+    <t>Net work issue</t>
+  </si>
+  <si>
+    <t>I have created 2nd report</t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>comunication</t>
+  </si>
+  <si>
+    <t>csv file download</t>
+  </si>
+  <si>
+    <t>basic checks</t>
+  </si>
+  <si>
+    <t>jupitor notebook</t>
+  </si>
+  <si>
+    <t>speaking</t>
+  </si>
+  <si>
+    <t>status excel preparation,filters practice</t>
   </si>
 </sst>
 </file>
@@ -126,9 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,17 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
@@ -429,7 +466,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -464,14 +501,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>45862</v>
+      <c r="B2" s="3">
+        <v>45859</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -484,29 +521,22 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>45862</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45862</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -515,9 +545,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45862</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -525,7 +553,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -533,16 +564,283 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45863</v>
+        <v>45860</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45861</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC644FC6-036C-4885-A722-D41BA4BE9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F7959-BF75-4C12-8D04-7B68B1A4A6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
   <si>
     <t>S.No</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>status excel preparation,filters practice</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th report explore&amp; steps prepare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st report creation                                                                                                                                </t>
+  </si>
+  <si>
+    <t>watching 4th report video &amp; excel preparation in pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice                                                                </t>
+  </si>
+  <si>
+    <t>pizza restuarent</t>
+  </si>
+  <si>
+    <t>excel preparation in pizza restuarent</t>
   </si>
 </sst>
 </file>
@@ -445,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +477,7 @@
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
@@ -823,20 +844,369 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" s="1">
+        <v>45866</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45868</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45870</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
